--- a/invoices.xlsx
+++ b/invoices.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -550,6 +550,69 @@
         <v>29</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SP21092022212648</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PANADOL STRIP 10</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SP21092022213157</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PANADOL STRIP 10</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SP21092022213755</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PANADOL STRIP 10</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/invoices.xlsx
+++ b/invoices.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -613,6 +613,69 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SP22092022001215</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PANADOL STRIP 10</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SP22092022001215</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>101</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PANADOL STRIP 20</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SP22092022001215</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NUROFEN STRIP 15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/invoices.xlsx
+++ b/invoices.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -676,6 +676,90 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SP22092022132249</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PANADOL STRIP 10</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SP22092022132249</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>101</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PANADOL STRIP 20</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SP22092022154655</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PANADOL STRIP 10</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SP22092022154655</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>101</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PANADOL STRIP 20</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/invoices.xlsx
+++ b/invoices.xlsx
@@ -868,22 +868,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SP23092022172048</t>
+          <t>SP23092022232857</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PANADOL STRIP 10</t>
+          <t>SIGMACORT CREAM 1% 50G</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
